--- a/data/trans_orig/P41C1_AOS_2023_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P41C1_AOS_2023_R-Provincia-trans_orig.xlsx
@@ -632,7 +632,7 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8693136984867009</v>
+        <v>0.8516596421778168</v>
       </c>
     </row>
     <row r="9">
@@ -649,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10.39052940606278</v>
+        <v>10.65934138693416</v>
       </c>
     </row>
     <row r="10">
@@ -664,13 +664,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1.61646250896435</v>
+        <v>1.616462508964351</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>2.274833158156756</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.990529200254808</v>
+        <v>1.990529200254807</v>
       </c>
     </row>
     <row r="11">
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5338510290946338</v>
+        <v>0.559630000591064</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.35960569732204</v>
+        <v>1.244882267657328</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.221679355125804</v>
+        <v>1.079179039699395</v>
       </c>
     </row>
     <row r="12">
@@ -698,13 +698,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.917705523733316</v>
+        <v>4.680336652306671</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.840724784840002</v>
+        <v>3.60907001203263</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.161442300644854</v>
+        <v>3.166894125137971</v>
       </c>
     </row>
     <row r="13">
@@ -740,7 +740,7 @@
         <v>1.021820567047201</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9695691119032528</v>
+        <v>0.9644646476257829</v>
       </c>
     </row>
     <row r="15">
@@ -752,10 +752,10 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>11.24903438443207</v>
+        <v>11.95179061163492</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.142191338999341</v>
+        <v>7.56245901754628</v>
       </c>
     </row>
     <row r="16">
@@ -806,7 +806,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.939001352397566</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -873,7 +873,7 @@
         <v>3.248796449464775</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>3.718951262573347</v>
+        <v>3.718951262573346</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>3.491397867941978</v>
@@ -887,13 +887,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.288927401711917</v>
+        <v>2.264207901815408</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.402816886654568</v>
+        <v>2.442097350578091</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.69638257149891</v>
+        <v>2.666507591588063</v>
       </c>
     </row>
     <row r="24">
@@ -904,13 +904,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.322677184124002</v>
+        <v>4.356499012516651</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.569357768541646</v>
+        <v>5.669401662567079</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.51834632946352</v>
+        <v>4.593782122536875</v>
       </c>
     </row>
     <row r="25">
@@ -948,7 +948,7 @@
         <v>2.349745560192196</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2.331996024741171</v>
+        <v>2.200096303971343</v>
       </c>
     </row>
     <row r="27">
@@ -965,7 +965,7 @@
         <v>15</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>8.981372832688086</v>
+        <v>8.800759970718591</v>
       </c>
     </row>
     <row r="28">
@@ -983,10 +983,10 @@
         <v>2.93362312337045</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>3.394675804106369</v>
+        <v>3.394675804106368</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3.168325397167558</v>
+        <v>3.168325397167559</v>
       </c>
     </row>
     <row r="29">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.006168497700266</v>
+        <v>1.984211764405174</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.436036424404034</v>
+        <v>2.488965177101705</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.461300903707347</v>
+        <v>2.431437999789246</v>
       </c>
     </row>
     <row r="30">
@@ -1014,13 +1014,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.486115380737616</v>
+        <v>4.594934039184221</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.896920965576298</v>
+        <v>5.024845010256515</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.156259457898665</v>
+        <v>4.286037512241818</v>
       </c>
     </row>
     <row r="31">
